--- a/Reference Paperes/Unconditional_Time_Series_Generation/Review papers.xlsx
+++ b/Reference Paperes/Unconditional_Time_Series_Generation/Review papers.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2bbd42a5929507b0/桌面/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_AD4DB114E441178AC67DF4E75654C2D0683EDF13" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9FCAF263-38FC-43C8-9B4B-577CA5ADDF97}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_AD4DB114E441178AC67DF4E75654C2D0683EDF13" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DAD24D21-2873-42D4-A57E-0CC8C31A7853}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="213">
   <si>
     <t>Title</t>
   </si>
@@ -775,6 +775,9 @@
   </si>
   <si>
     <t>TTS-GAN: A Transformer-Based Time-Series Generative Adversarial Network</t>
+  </si>
+  <si>
+    <t>https://github.com/SigCGANs/Sig-Wasserstein-GANs</t>
   </si>
 </sst>
 </file>
@@ -1147,10 +1150,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1FA087E-C0D3-469D-A8E2-9DE3389B497D}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
+      <selection pane="bottomLeft" activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1312,6 +1315,9 @@
       </c>
       <c r="K4" s="7" t="s">
         <v>35</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="3" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
@@ -2190,9 +2196,10 @@
     <hyperlink ref="K9" r:id="rId36" xr:uid="{19F2C6C8-D54B-422C-98BE-73B2D614A224}"/>
     <hyperlink ref="K8" r:id="rId37" xr:uid="{17AD1394-C0F1-491C-BBEB-D321539AA4DC}"/>
     <hyperlink ref="L6" r:id="rId38" xr:uid="{48E40EA0-87CD-402E-BE35-C67B45076A03}"/>
+    <hyperlink ref="L4" r:id="rId39" xr:uid="{D5B7E020-104D-42DD-9A83-7A46D62750E6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId39"/>
+  <pageSetup orientation="portrait" r:id="rId40"/>
 </worksheet>
 </file>
 

--- a/Reference Paperes/Unconditional_Time_Series_Generation/Review papers.xlsx
+++ b/Reference Paperes/Unconditional_Time_Series_Generation/Review papers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2bbd42a5929507b0/桌面/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_AD4DB114E441178AC67DF4E75654C2D0683EDF13" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DAD24D21-2873-42D4-A57E-0CC8C31A7853}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_AD4DB114E441178AC67DF4E75654C2D0683EDF13" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6397B88B-2B97-4B3E-8CEC-FBA98FBEECC3}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="212">
   <si>
     <t>Title</t>
   </si>
@@ -316,9 +316,6 @@
   </si>
   <si>
     <t>Mark Leznik, Patrick Michalsky, Peter Willis, Benjamin Schanzel, Per-Olov Östberg, Jörg Domaschka</t>
-  </si>
-  <si>
-    <t>Sanity check</t>
   </si>
   <si>
     <t>Multivariate Time series generation</t>
@@ -1150,10 +1147,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1FA087E-C0D3-469D-A8E2-9DE3389B497D}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="L5" sqref="L5"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1317,7 +1314,7 @@
         <v>35</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="3" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
@@ -1541,19 +1538,19 @@
         <v>44305</v>
       </c>
       <c r="F11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="I11" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="J11" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="K11" s="6" t="s">
         <v>88</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="63" x14ac:dyDescent="0.25">
@@ -1561,34 +1558,37 @@
         <v>1</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="D12" s="5">
         <v>44218</v>
       </c>
       <c r="E12" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="H12" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="I12" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="J12" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="K12" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="L12" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="63" x14ac:dyDescent="0.25">
@@ -1596,37 +1596,37 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>100</v>
       </c>
       <c r="D13" s="5">
         <v>44273</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I13" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J13" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="K13" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
@@ -1634,25 +1634,25 @@
         <v>1</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="D14" s="5">
         <v>44244</v>
       </c>
       <c r="F14" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="I14" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="J14" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="K14" s="6" t="s">
         <v>111</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="63" x14ac:dyDescent="0.25">
@@ -1660,34 +1660,34 @@
         <v>1</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="D15" s="5">
         <v>43073</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>39</v>
       </c>
       <c r="H15" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I15" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="J15" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="K15" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="L15" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
@@ -1695,31 +1695,34 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="D16" s="5">
         <v>44537</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>63</v>
       </c>
       <c r="I16" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J16" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="K16" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="6" t="s">
         <v>126</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
@@ -1727,34 +1730,34 @@
         <v>1</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="D17" s="5">
         <v>44475</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G17" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="I17" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="J17" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="K17" s="6" t="s">
         <v>134</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="63" x14ac:dyDescent="0.25">
@@ -1762,31 +1765,31 @@
         <v>1</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>137</v>
       </c>
       <c r="D18" s="5">
         <v>44704</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G18" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I18" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="J18" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="K18" s="6" t="s">
         <v>141</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="63" x14ac:dyDescent="0.25">
@@ -1794,31 +1797,31 @@
         <v>1</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>143</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>144</v>
       </c>
       <c r="D19" s="5">
         <v>44395</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G19" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="I19" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="J19" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="K19" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
@@ -1826,10 +1829,10 @@
         <v>1</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>151</v>
       </c>
       <c r="D20" s="5">
         <v>44395</v>
@@ -1847,13 +1850,13 @@
         <v>41</v>
       </c>
       <c r="I20" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="J20" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="K20" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="63" x14ac:dyDescent="0.25">
@@ -1861,16 +1864,16 @@
         <v>1</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>156</v>
       </c>
       <c r="D21" s="5">
         <v>43927</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>14</v>
@@ -1879,13 +1882,13 @@
         <v>41</v>
       </c>
       <c r="I21" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="J21" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="J21" s="4" t="s">
+      <c r="K21" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1893,16 +1896,16 @@
         <v>1</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>162</v>
       </c>
       <c r="D22" s="5">
         <v>42885</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>14</v>
@@ -1911,13 +1914,13 @@
         <v>24</v>
       </c>
       <c r="I22" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="J22" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="K22" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
@@ -1925,16 +1928,16 @@
         <v>1</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>168</v>
       </c>
       <c r="D23" s="5">
         <v>44700</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>14</v>
@@ -1943,13 +1946,13 @@
         <v>24</v>
       </c>
       <c r="I23" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="J23" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="J23" s="4" t="s">
+      <c r="K23" s="6" t="s">
         <v>171</v>
-      </c>
-      <c r="K23" s="6" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
@@ -1957,16 +1960,16 @@
         <v>1</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>174</v>
       </c>
       <c r="D24" s="5">
         <v>43767</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>14</v>
@@ -1975,13 +1978,13 @@
         <v>24</v>
       </c>
       <c r="I24" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="J24" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="J24" s="4" t="s">
+      <c r="K24" s="6" t="s">
         <v>177</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
@@ -1989,31 +1992,31 @@
         <v>1</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>179</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>180</v>
       </c>
       <c r="D25" s="5">
         <v>44475</v>
       </c>
       <c r="E25" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="H25" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="I25" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="J25" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="J25" s="4" t="s">
+      <c r="K25" s="6" t="s">
         <v>185</v>
-      </c>
-      <c r="K25" s="6" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
@@ -2021,16 +2024,16 @@
         <v>1</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>187</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>188</v>
       </c>
       <c r="D26" s="5">
         <v>44131</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>14</v>
@@ -2039,16 +2042,16 @@
         <v>24</v>
       </c>
       <c r="I26" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="J26" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="J26" s="4" t="s">
+      <c r="K26" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="K26" s="6" t="s">
+      <c r="L26" s="6" t="s">
         <v>192</v>
-      </c>
-      <c r="L26" s="6" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
@@ -2056,16 +2059,16 @@
         <v>1</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D27" s="5">
         <v>44320</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>14</v>
@@ -2074,13 +2077,13 @@
         <v>24</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J27" s="4" t="s">
         <v>26</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="63" x14ac:dyDescent="0.25">
@@ -2088,34 +2091,34 @@
         <v>1</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>197</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>198</v>
       </c>
       <c r="D28" s="5">
         <v>44008</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H28" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="I28" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="J28" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="J28" s="4" t="s">
+      <c r="K28" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="K28" s="6" t="s">
+      <c r="L28" s="6" t="s">
         <v>203</v>
-      </c>
-      <c r="L28" s="6" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="63" x14ac:dyDescent="0.25">
@@ -2123,31 +2126,31 @@
         <v>1</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D29" s="5">
         <v>44738</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>14</v>
       </c>
       <c r="I29" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="J29" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="J29" s="4" t="s">
+      <c r="K29" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="K29" s="6" t="s">
+      <c r="L29" s="6" t="s">
         <v>209</v>
-      </c>
-      <c r="L29" s="6" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">

--- a/Reference Paperes/Unconditional_Time_Series_Generation/Review papers.xlsx
+++ b/Reference Paperes/Unconditional_Time_Series_Generation/Review papers.xlsx
@@ -1,32 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2bbd42a5929507b0/桌面/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hao\Dropbox\PC\Desktop\New folder\Evaluation-of-Time-Series-Generative-Models\Reference Paperes\Unconditional_Time_Series_Generation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_AD4DB114E441178AC67DF4E75654C2D0683EDF13" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9FCAF263-38FC-43C8-9B4B-577CA5ADDF97}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B065AE-8F48-4E1F-BB8A-AC4D1962E19C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GANs" sheetId="2" r:id="rId1"/>
     <sheet name="Tabelle1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GANs!$A$1:$L$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet2!$A$2:$A$113</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="3">Sheet2!$B$2</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="345">
   <si>
     <t>Title</t>
   </si>
@@ -776,12 +794,411 @@
   <si>
     <t>TTS-GAN: A Transformer-Based Time-Series Generative Adversarial Network</t>
   </si>
+  <si>
+    <t>Xiaomin Li</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vangelis Metsis</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Huangyingrui Wang</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Anne Hee Hiong Ngu</t>
+  </si>
+  <si>
+    <t>Jinsung Yoon, Daniel Jarrett, Mihaela van der SchaarHao Ni, Lukasz Szpruch, Marc Sabate-Vidales, Baoren Xiao, Magnus Wiese, Shujian LiaoShuntaro Takahashi, Yu Chen, Kumiko Tanaka-IshiiHengzhi Pei, Kan Ren, Yuqing Yang, Chang Liu, Tao Qin, Dongsheng LiDaniel Jarrett, Ioana Bica, Mihaela van der SchaarZhengping Che, Sanjay Purushotham, Guangyu Li, Bo Jiang, Yan LiuMathias Berglund, Tapani Raiko, Mikko Honkala, Leo Kärkkäinen, Akos Vetek, Juha KarhunenTianlin Xu, Li K. Wenliang, Michael Munn, Beatrice AcciaioMark Leznik, Patrick Michalsky, Peter Willis, Benjamin Schanzel, Per-Olov Östberg, Jörg DomaschkaTodd Huster, Jeremy E.J. Cohen, Zinan Lin, Kevin Chan, Charles Kamhoua, Nandi Leslie, Cho-Yu Jason Chiang, Vyas SekarAhmed M. Alaa, Alex James Chan, Mihaela van der SchaarAhmed M. Alaa, Boris van Breugel, Evgeny Saveliev, Mihaela van der SchaarCristóbal Esteban, Stephanie L. Hyland, Gunnar RätschAbhyuday Desai, Cynthia Freeman, Zuhui Wang, Ian BeaverCarl Remlinger, Joseph Mikael, Romuald EliePadmanaba Srinivasan, William J. KnottenbeltSung Woo Park, Dong Wook Shu, Junseok KwonAntonio RosoliaMagnus Wiese, Robert Knobloch, Ralf Korn, Peter KretschmerLars Kegel, M. Hahmann, Wolfgang LehnerMengyue Zha, SiuTim Wong, Mengqi Liu, Tong Zhang, Kani ChenEoin Brophy, Zhengwei Wang, Tomas E. WardHiba Arnout, Johanna Bronner, Thomas RunklerZinan Lin, Alankar Jain, Chen Wang, Giulia Fanti, Vyas SekarHiba Arnout, Johanna Bronner, Thomas RunklerDerek SnowXiaomin Li, Vangelis Metsis, Huangyingrui Wang, Anne Hee Hiong Ngu</t>
+  </si>
+  <si>
+    <t>Jinsung Yoon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Daniel Jarrett</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mihaela van der SchaarHao Ni</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lukasz Szpruch</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Marc Sabate-Vidales</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Baoren Xiao</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Magnus Wiese</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Shujian LiaoShuntaro Takahashi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yu Chen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kumiko Tanaka-IshiiHengzhi Pei</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kan Ren</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yuqing Yang</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chang Liu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tao Qin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dongsheng LiDaniel Jarrett</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ioana Bica</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mihaela van der SchaarZhengping Che</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sanjay Purushotham</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Guangyu Li</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bo Jiang</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yan LiuMathias Berglund</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tapani Raiko</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mikko Honkala</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Leo Kärkkäinen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Akos Vetek</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Juha KarhunenTianlin Xu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Li K. Wenliang</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Michael Munn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Beatrice AcciaioMark Leznik</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Patrick Michalsky</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Peter Willis</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Benjamin Schanzel</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Per-Olov Östberg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jörg DomaschkaTodd Huster</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jeremy E.J. Cohen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Zinan Lin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kevin Chan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Charles Kamhoua</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nandi Leslie</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cho-Yu Jason Chiang</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vyas SekarAhmed M. Alaa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Alex James Chan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mihaela van der SchaarAhmed M. Alaa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Boris van Breugel</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Evgeny Saveliev</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mihaela van der SchaarCristóbal Esteban</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Stephanie L. Hyland</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gunnar RätschAbhyuday Desai</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cynthia Freeman</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Zuhui Wang</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ian BeaverCarl Remlinger</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Joseph Mikael</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Romuald EliePadmanaba Srinivasan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> William J. KnottenbeltSung Woo Park</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dong Wook Shu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Junseok KwonAntonio RosoliaMagnus Wiese</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Robert Knobloch</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ralf Korn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Peter KretschmerLars Kegel</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> M. Hahmann</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wolfgang LehnerMengyue Zha</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SiuTim Wong</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mengqi Liu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tong Zhang</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kani ChenEoin Brophy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Zhengwei Wang</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tomas E. WardHiba Arnout</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Johanna Bronner</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thomas RunklerZinan Lin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Alankar Jain</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chen Wang</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Giulia Fanti</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vyas SekarHiba Arnout</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thomas RunklerDerek SnowXiaomin Li</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t>author2</t>
+  </si>
+  <si>
+    <t>all authors</t>
+  </si>
+  <si>
+    <t>Jeha Paul, Bohlke-Schneider Michael, Mercado Pedro, Kapoor Shubham, Singh Nirwan Rajbir, Flunkert Valentin, Gasthaus Jan, Januschowski Tim,Jinsung Yoon, Daniel Jarrett, Mihaela van der Schaar,Hao Ni, Lukasz Szpruch, Marc Sabate-Vidales, Baoren Xiao, Magnus Wiese, Shujian Liao,Shuntaro Takahashi, Yu Chen, Kumiko Tanaka-Ishii,Hengzhi Pei, Kan Ren, Yuqing Yang, Chang Liu, Tao Qin, Dongsheng Li,Daniel Jarrett, Ioana Bica, Mihaela van der Schaar,Zhengping Che, Sanjay Purushotham, Guangyu Li, Bo Jiang, Yan Liu,Mathias Berglund, Tapani Raiko, Mikko Honkala, Leo Kärkkäinen, Akos Vetek, Juha Karhunen,Tianlin Xu, Li K. Wenliang, Michael Munn, Beatrice Acciaio,Mark Leznik, Patrick Michalsky, Peter Willis, Benjamin Schanzel, Per-Olov Östberg, Jörg Domaschka,Todd Huster, Jeremy E.J. Cohen, Zinan Lin, Kevin Chan, Charles Kamhoua, Nandi Leslie, Cho-Yu Jason Chiang, Vyas Sekar,Ahmed M. Alaa, Alex James Chan, Mihaela van der Schaar,Ahmed M. Alaa, Boris van Breugel, Evgeny Saveliev, Mihaela van der Schaar,Cristóbal Esteban, Stephanie L. Hyland, Gunnar Rätsch,Abhyuday Desai, Cynthia Freeman, Zuhui Wang, Ian Beaver,Carl Remlinger, Joseph Mikael, Romuald Elie,Padmanaba Srinivasan, William J. Knottenbelt,Sung Woo Park, Dong Wook Shu, Junseok Kwon,Antonio Rosolia,Magnus Wiese, Robert Knobloch, Ralf Korn, Peter Kretschmer,Lars Kegel, M. Hahmann, Wolfgang Lehner,Mengyue Zha, SiuTim Wong, Mengqi Liu, Tong Zhang, Kani Chen,Eoin Brophy, Zhengwei Wang, Tomas E. Ward,Hiba Arnout, Johanna Bronner, Thomas Runkler,Zinan Lin, Alankar Jain, Chen Wang, Giulia Fanti, Vyas Sekar,Hiba Arnout, Johanna Bronner, Thomas Runkler,Derek Snow,Xiaomin Li, Vangelis Metsis, Huangyingrui Wang, Anne Hee Hiong Ngu,</t>
+  </si>
+  <si>
+    <t>Jeha Paul</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bohlke-Schneider Michael</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mercado Pedro</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kapoor Shubham</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Singh Nirwan Rajbir</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Flunkert Valentin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gasthaus Jan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Januschowski Tim</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mihaela van der Schaar</t>
+  </si>
+  <si>
+    <t>Hao Ni</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Shujian Liao</t>
+  </si>
+  <si>
+    <t>Shuntaro Takahashi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kumiko Tanaka-Ishii</t>
+  </si>
+  <si>
+    <t>Hengzhi Pei</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dongsheng Li</t>
+  </si>
+  <si>
+    <t>Daniel Jarrett</t>
+  </si>
+  <si>
+    <t>Zhengping Che</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yan Liu</t>
+  </si>
+  <si>
+    <t>Mathias Berglund</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Juha Karhunen</t>
+  </si>
+  <si>
+    <t>Tianlin Xu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Beatrice Acciaio</t>
+  </si>
+  <si>
+    <t>Mark Leznik</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jörg Domaschka</t>
+  </si>
+  <si>
+    <t>Todd Huster</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vyas Sekar</t>
+  </si>
+  <si>
+    <t>Ahmed M. Alaa</t>
+  </si>
+  <si>
+    <t>Cristóbal Esteban</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gunnar Rätsch</t>
+  </si>
+  <si>
+    <t>Abhyuday Desai</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ian Beaver</t>
+  </si>
+  <si>
+    <t>Carl Remlinger</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Romuald Elie</t>
+  </si>
+  <si>
+    <t>Padmanaba Srinivasan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> William J. Knottenbelt</t>
+  </si>
+  <si>
+    <t>Sung Woo Park</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Junseok Kwon</t>
+  </si>
+  <si>
+    <t>Magnus Wiese</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Peter Kretschmer</t>
+  </si>
+  <si>
+    <t>Lars Kegel</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wolfgang Lehner</t>
+  </si>
+  <si>
+    <t>Mengyue Zha</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kani Chen</t>
+  </si>
+  <si>
+    <t>Eoin Brophy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tomas E. Ward</t>
+  </si>
+  <si>
+    <t>Hiba Arnout</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thomas Runkler</t>
+  </si>
+  <si>
+    <t>Zinan Lin</t>
+  </si>
+  <si>
+    <t>Authors_unique</t>
+  </si>
+  <si>
+    <t>Author list no duplicates</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -820,6 +1237,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -842,7 +1267,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -864,6 +1289,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1145,32 +1571,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1FA087E-C0D3-469D-A8E2-9DE3389B497D}">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="145.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="141.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="44.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="3"/>
+    <col min="2" max="2" width="145.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="141.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.81640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="44.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="48.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="41.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="33.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="48.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="41.1796875" style="3" customWidth="1"/>
     <col min="10" max="10" width="40" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="88.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="72.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="8"/>
+    <col min="11" max="11" width="88.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="72.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.1796875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1206,7 +1632,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="3" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="3" customFormat="1" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1241,7 +1667,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="3" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" s="3" customFormat="1" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -1279,7 +1705,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="3" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" s="3" customFormat="1" ht="62" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1314,7 +1740,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="3" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" s="3" customFormat="1" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -1349,7 +1775,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="3" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" s="3" customFormat="1" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -1387,7 +1813,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="3" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" s="3" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -1422,7 +1848,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" s="3" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>1</v>
       </c>
@@ -1457,7 +1883,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B9" s="3" t="s">
         <v>68</v>
       </c>
@@ -1489,7 +1915,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="3" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" s="3" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -1521,7 +1947,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" s="3" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>1</v>
       </c>
@@ -1550,7 +1976,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="63" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="62" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>1</v>
       </c>
@@ -1585,7 +2011,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="63" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="62" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>1</v>
       </c>
@@ -1623,7 +2049,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>1</v>
       </c>
@@ -1649,7 +2075,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="63" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="62" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>1</v>
       </c>
@@ -1684,7 +2110,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>1</v>
       </c>
@@ -1716,7 +2142,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>1</v>
       </c>
@@ -1751,7 +2177,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="63" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="62" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>1</v>
       </c>
@@ -1783,7 +2209,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="63" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="62" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>1</v>
       </c>
@@ -1815,7 +2241,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="93" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>1</v>
       </c>
@@ -1850,7 +2276,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="63" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="62" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>1</v>
       </c>
@@ -1882,7 +2308,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>1</v>
       </c>
@@ -1914,7 +2340,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="93" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>1</v>
       </c>
@@ -1946,7 +2372,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>1</v>
       </c>
@@ -1978,7 +2404,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>1</v>
       </c>
@@ -2010,7 +2436,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>1</v>
       </c>
@@ -2045,7 +2471,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>1</v>
       </c>
@@ -2077,7 +2503,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="63" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="62" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>1</v>
       </c>
@@ -2112,7 +2538,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="63" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="62" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>1</v>
       </c>
@@ -2144,11 +2570,25 @@
         <v>210</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C34" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>215</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2198,12 +2638,2729 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:BZ85"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:A16391"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:78" x14ac:dyDescent="0.35">
+      <c r="A1" t="str">
+        <f>_xlfn.CONCAT(GANs!C3:C29)</f>
+        <v>Jinsung Yoon, Daniel Jarrett, Mihaela van der SchaarHao Ni, Lukasz Szpruch, Marc Sabate-Vidales, Baoren Xiao, Magnus Wiese, Shujian LiaoShuntaro Takahashi, Yu Chen, Kumiko Tanaka-IshiiHengzhi Pei, Kan Ren, Yuqing Yang, Chang Liu, Tao Qin, Dongsheng LiDaniel Jarrett, Ioana Bica, Mihaela van der SchaarZhengping Che, Sanjay Purushotham, Guangyu Li, Bo Jiang, Yan LiuMathias Berglund, Tapani Raiko, Mikko Honkala, Leo Kärkkäinen, Akos Vetek, Juha KarhunenTianlin Xu, Li K. Wenliang, Michael Munn, Beatrice AcciaioMark Leznik, Patrick Michalsky, Peter Willis, Benjamin Schanzel, Per-Olov Östberg, Jörg DomaschkaTodd Huster, Jeremy E.J. Cohen, Zinan Lin, Kevin Chan, Charles Kamhoua, Nandi Leslie, Cho-Yu Jason Chiang, Vyas SekarAhmed M. Alaa, Alex James Chan, Mihaela van der SchaarAhmed M. Alaa, Boris van Breugel, Evgeny Saveliev, Mihaela van der SchaarCristóbal Esteban, Stephanie L. Hyland, Gunnar RätschAbhyuday Desai, Cynthia Freeman, Zuhui Wang, Ian BeaverCarl Remlinger, Joseph Mikael, Romuald EliePadmanaba Srinivasan, William J. KnottenbeltSung Woo Park, Dong Wook Shu, Junseok KwonAntonio RosoliaMagnus Wiese, Robert Knobloch, Ralf Korn, Peter KretschmerLars Kegel, M. Hahmann, Wolfgang LehnerMengyue Zha, SiuTim Wong, Mengqi Liu, Tong Zhang, Kani ChenEoin Brophy, Zhengwei Wang, Tomas E. WardHiba Arnout, Johanna Bronner, Thomas RunklerZinan Lin, Alankar Jain, Chen Wang, Giulia Fanti, Vyas SekarHiba Arnout, Johanna Bronner, Thomas RunklerDerek SnowXiaomin Li, Vangelis Metsis, Huangyingrui Wang, Anne Hee Hiong Ngu</v>
+      </c>
+    </row>
+    <row r="3" spans="1:78" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:78" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E5" t="s">
+        <v>221</v>
+      </c>
+      <c r="F5" t="s">
+        <v>222</v>
+      </c>
+      <c r="G5" t="s">
+        <v>223</v>
+      </c>
+      <c r="H5" t="s">
+        <v>224</v>
+      </c>
+      <c r="I5" t="s">
+        <v>225</v>
+      </c>
+      <c r="J5" t="s">
+        <v>226</v>
+      </c>
+      <c r="K5" t="s">
+        <v>227</v>
+      </c>
+      <c r="L5" t="s">
+        <v>228</v>
+      </c>
+      <c r="M5" t="s">
+        <v>229</v>
+      </c>
+      <c r="N5" t="s">
+        <v>230</v>
+      </c>
+      <c r="O5" t="s">
+        <v>231</v>
+      </c>
+      <c r="P5" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>233</v>
+      </c>
+      <c r="R5" t="s">
+        <v>234</v>
+      </c>
+      <c r="S5" t="s">
+        <v>235</v>
+      </c>
+      <c r="T5" t="s">
+        <v>236</v>
+      </c>
+      <c r="U5" t="s">
+        <v>237</v>
+      </c>
+      <c r="V5" t="s">
+        <v>238</v>
+      </c>
+      <c r="W5" t="s">
+        <v>239</v>
+      </c>
+      <c r="X5" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>241</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>242</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>243</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>244</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>245</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>246</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>247</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>248</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>249</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>250</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>251</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>252</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>253</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>254</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>255</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>256</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>257</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>258</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>259</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>260</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>261</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>262</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>263</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>264</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>265</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>266</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>267</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>268</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>269</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>270</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>271</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>272</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>273</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>274</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>275</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>276</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>277</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>278</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>279</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>280</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>281</v>
+      </c>
+      <c r="BN5" t="s">
+        <v>282</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>283</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>284</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>285</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>286</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>287</v>
+      </c>
+      <c r="BT5" t="s">
+        <v>288</v>
+      </c>
+      <c r="BU5" t="s">
+        <v>289</v>
+      </c>
+      <c r="BV5" t="s">
+        <v>284</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>290</v>
+      </c>
+      <c r="BX5" t="s">
+        <v>213</v>
+      </c>
+      <c r="BY5" t="s">
+        <v>214</v>
+      </c>
+      <c r="BZ5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:78" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:78" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="10" spans="1:78" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="11" spans="1:78" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="12" spans="1:78" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="13" spans="1:78" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="14" spans="1:78" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="15" spans="1:78" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="16" spans="1:78" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>215</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49850BC2-7E7F-42F7-B7AA-D25CF5DE209F}">
+  <dimension ref="A1:DJ34"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:DK4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="92.54296875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="122.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:114" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="2" spans="1:114" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="str">
+        <f>_xlfn.CONCAT(A2,",")</f>
+        <v>Jeha Paul, Bohlke-Schneider Michael, Mercado Pedro, Kapoor Shubham, Singh Nirwan Rajbir, Flunkert Valentin, Gasthaus Jan, Januschowski Tim,</v>
+      </c>
+      <c r="C2" t="str">
+        <f>_xlfn.CONCAT(B2:B29)</f>
+        <v>Jeha Paul, Bohlke-Schneider Michael, Mercado Pedro, Kapoor Shubham, Singh Nirwan Rajbir, Flunkert Valentin, Gasthaus Jan, Januschowski Tim,Jinsung Yoon, Daniel Jarrett, Mihaela van der Schaar,Hao Ni, Lukasz Szpruch, Marc Sabate-Vidales, Baoren Xiao, Magnus Wiese, Shujian Liao,Shuntaro Takahashi, Yu Chen, Kumiko Tanaka-Ishii,Hengzhi Pei, Kan Ren, Yuqing Yang, Chang Liu, Tao Qin, Dongsheng Li,Daniel Jarrett, Ioana Bica, Mihaela van der Schaar,Zhengping Che, Sanjay Purushotham, Guangyu Li, Bo Jiang, Yan Liu,Mathias Berglund, Tapani Raiko, Mikko Honkala, Leo Kärkkäinen, Akos Vetek, Juha Karhunen,Tianlin Xu, Li K. Wenliang, Michael Munn, Beatrice Acciaio,Mark Leznik, Patrick Michalsky, Peter Willis, Benjamin Schanzel, Per-Olov Östberg, Jörg Domaschka,Todd Huster, Jeremy E.J. Cohen, Zinan Lin, Kevin Chan, Charles Kamhoua, Nandi Leslie, Cho-Yu Jason Chiang, Vyas Sekar,Ahmed M. Alaa, Alex James Chan, Mihaela van der Schaar,Ahmed M. Alaa, Boris van Breugel, Evgeny Saveliev, Mihaela van der Schaar,Cristóbal Esteban, Stephanie L. Hyland, Gunnar Rätsch,Abhyuday Desai, Cynthia Freeman, Zuhui Wang, Ian Beaver,Carl Remlinger, Joseph Mikael, Romuald Elie,Padmanaba Srinivasan, William J. Knottenbelt,Sung Woo Park, Dong Wook Shu, Junseok Kwon,Antonio Rosolia,Magnus Wiese, Robert Knobloch, Ralf Korn, Peter Kretschmer,Lars Kegel, M. Hahmann, Wolfgang Lehner,Mengyue Zha, SiuTim Wong, Mengqi Liu, Tong Zhang, Kani Chen,Eoin Brophy, Zhengwei Wang, Tomas E. Ward,Hiba Arnout, Johanna Bronner, Thomas Runkler,Zinan Lin, Alankar Jain, Chen Wang, Giulia Fanti, Vyas Sekar,Hiba Arnout, Johanna Bronner, Thomas Runkler,Derek Snow,Xiaomin Li, Vangelis Metsis, Huangyingrui Wang, Anne Hee Hiong Ngu,</v>
+      </c>
+    </row>
+    <row r="3" spans="1:114" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" ref="B3:B29" si="0">_xlfn.CONCAT(A3,",")</f>
+        <v>Jinsung Yoon, Daniel Jarrett, Mihaela van der Schaar,</v>
+      </c>
+      <c r="C3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="4" spans="1:114" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>Hao Ni, Lukasz Szpruch, Marc Sabate-Vidales, Baoren Xiao, Magnus Wiese, Shujian Liao,</v>
+      </c>
+      <c r="C4" t="s">
+        <v>295</v>
+      </c>
+      <c r="D4" t="s">
+        <v>296</v>
+      </c>
+      <c r="E4" t="s">
+        <v>297</v>
+      </c>
+      <c r="F4" t="s">
+        <v>298</v>
+      </c>
+      <c r="G4" t="s">
+        <v>299</v>
+      </c>
+      <c r="H4" t="s">
+        <v>300</v>
+      </c>
+      <c r="I4" t="s">
+        <v>301</v>
+      </c>
+      <c r="J4" t="s">
+        <v>302</v>
+      </c>
+      <c r="K4" t="s">
+        <v>217</v>
+      </c>
+      <c r="L4" t="s">
+        <v>218</v>
+      </c>
+      <c r="M4" t="s">
+        <v>303</v>
+      </c>
+      <c r="N4" t="s">
+        <v>304</v>
+      </c>
+      <c r="O4" t="s">
+        <v>220</v>
+      </c>
+      <c r="P4" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>222</v>
+      </c>
+      <c r="R4" t="s">
+        <v>223</v>
+      </c>
+      <c r="S4" t="s">
+        <v>305</v>
+      </c>
+      <c r="T4" t="s">
+        <v>306</v>
+      </c>
+      <c r="U4" t="s">
+        <v>225</v>
+      </c>
+      <c r="V4" t="s">
+        <v>307</v>
+      </c>
+      <c r="W4" t="s">
+        <v>308</v>
+      </c>
+      <c r="X4" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>228</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>229</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>230</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>309</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>310</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>232</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>303</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>311</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>234</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>235</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>236</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>312</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>313</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>238</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>239</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>240</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>241</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>314</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>315</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>243</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>244</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>316</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>317</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>246</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>247</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>248</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>249</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>318</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>319</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>251</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>252</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>253</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>254</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>255</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>256</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>320</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>321</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>258</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>303</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>321</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>260</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>261</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>303</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>322</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>263</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>323</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>324</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>265</v>
+      </c>
+      <c r="BU4" t="s">
+        <v>266</v>
+      </c>
+      <c r="BV4" t="s">
+        <v>325</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>326</v>
+      </c>
+      <c r="BX4" t="s">
+        <v>268</v>
+      </c>
+      <c r="BY4" t="s">
+        <v>327</v>
+      </c>
+      <c r="BZ4" t="s">
+        <v>328</v>
+      </c>
+      <c r="CA4" t="s">
+        <v>329</v>
+      </c>
+      <c r="CB4" t="s">
+        <v>330</v>
+      </c>
+      <c r="CC4" t="s">
+        <v>271</v>
+      </c>
+      <c r="CD4" t="s">
+        <v>331</v>
+      </c>
+      <c r="CE4" t="s">
+        <v>151</v>
+      </c>
+      <c r="CF4" t="s">
+        <v>332</v>
+      </c>
+      <c r="CG4" t="s">
+        <v>273</v>
+      </c>
+      <c r="CH4" t="s">
+        <v>274</v>
+      </c>
+      <c r="CI4" t="s">
+        <v>333</v>
+      </c>
+      <c r="CJ4" t="s">
+        <v>334</v>
+      </c>
+      <c r="CK4" t="s">
+        <v>276</v>
+      </c>
+      <c r="CL4" t="s">
+        <v>335</v>
+      </c>
+      <c r="CM4" t="s">
+        <v>336</v>
+      </c>
+      <c r="CN4" t="s">
+        <v>278</v>
+      </c>
+      <c r="CO4" t="s">
+        <v>279</v>
+      </c>
+      <c r="CP4" t="s">
+        <v>280</v>
+      </c>
+      <c r="CQ4" t="s">
+        <v>337</v>
+      </c>
+      <c r="CR4" t="s">
+        <v>338</v>
+      </c>
+      <c r="CS4" t="s">
+        <v>282</v>
+      </c>
+      <c r="CT4" t="s">
+        <v>339</v>
+      </c>
+      <c r="CU4" t="s">
+        <v>340</v>
+      </c>
+      <c r="CV4" t="s">
+        <v>284</v>
+      </c>
+      <c r="CW4" t="s">
+        <v>341</v>
+      </c>
+      <c r="CX4" t="s">
+        <v>342</v>
+      </c>
+      <c r="CY4" t="s">
+        <v>286</v>
+      </c>
+      <c r="CZ4" t="s">
+        <v>287</v>
+      </c>
+      <c r="DA4" t="s">
+        <v>288</v>
+      </c>
+      <c r="DB4" t="s">
+        <v>320</v>
+      </c>
+      <c r="DC4" t="s">
+        <v>340</v>
+      </c>
+      <c r="DD4" t="s">
+        <v>284</v>
+      </c>
+      <c r="DE4" t="s">
+        <v>341</v>
+      </c>
+      <c r="DF4" t="s">
+        <v>198</v>
+      </c>
+      <c r="DG4" t="s">
+        <v>212</v>
+      </c>
+      <c r="DH4" t="s">
+        <v>213</v>
+      </c>
+      <c r="DI4" t="s">
+        <v>214</v>
+      </c>
+      <c r="DJ4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="5" spans="1:114" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>Shuntaro Takahashi, Yu Chen, Kumiko Tanaka-Ishii,</v>
+      </c>
+    </row>
+    <row r="6" spans="1:114" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>Hengzhi Pei, Kan Ren, Yuqing Yang, Chang Liu, Tao Qin, Dongsheng Li,</v>
+      </c>
+    </row>
+    <row r="7" spans="1:114" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>Daniel Jarrett, Ioana Bica, Mihaela van der Schaar,</v>
+      </c>
+    </row>
+    <row r="8" spans="1:114" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>Zhengping Che, Sanjay Purushotham, Guangyu Li, Bo Jiang, Yan Liu,</v>
+      </c>
+    </row>
+    <row r="9" spans="1:114" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>Mathias Berglund, Tapani Raiko, Mikko Honkala, Leo Kärkkäinen, Akos Vetek, Juha Karhunen,</v>
+      </c>
+    </row>
+    <row r="10" spans="1:114" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>Tianlin Xu, Li K. Wenliang, Michael Munn, Beatrice Acciaio,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:114" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>Mark Leznik, Patrick Michalsky, Peter Willis, Benjamin Schanzel, Per-Olov Östberg, Jörg Domaschka,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:114" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>Todd Huster, Jeremy E.J. Cohen, Zinan Lin, Kevin Chan, Charles Kamhoua, Nandi Leslie, Cho-Yu Jason Chiang, Vyas Sekar,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:114" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>Ahmed M. Alaa, Alex James Chan, Mihaela van der Schaar,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:114" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>Ahmed M. Alaa, Boris van Breugel, Evgeny Saveliev, Mihaela van der Schaar,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:114" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>Cristóbal Esteban, Stephanie L. Hyland, Gunnar Rätsch,</v>
+      </c>
+    </row>
+    <row r="16" spans="1:114" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>Abhyuday Desai, Cynthia Freeman, Zuhui Wang, Ian Beaver,</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>Carl Remlinger, Joseph Mikael, Romuald Elie,</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>Padmanaba Srinivasan, William J. Knottenbelt,</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>Sung Woo Park, Dong Wook Shu, Junseok Kwon,</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>Antonio Rosolia,</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>Magnus Wiese, Robert Knobloch, Ralf Korn, Peter Kretschmer,</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>Lars Kegel, M. Hahmann, Wolfgang Lehner,</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>Mengyue Zha, SiuTim Wong, Mengqi Liu, Tong Zhang, Kani Chen,</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>Eoin Brophy, Zhengwei Wang, Tomas E. Ward,</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>Hiba Arnout, Johanna Bronner, Thomas Runkler,</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>Zinan Lin, Alankar Jain, Chen Wang, Giulia Fanti, Vyas Sekar,</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>Hiba Arnout, Johanna Bronner, Thomas Runkler,</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>Derek Snow,</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>Xiaomin Li, Vangelis Metsis, Huangyingrui Wang, Anne Hee Hiong Ngu,</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E54AF6CF-80F3-4B5D-B985-9F0AF35512A3}">
+  <dimension ref="A1:B113"/>
+  <sheetViews>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B105"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="23" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>320</v>
+      </c>
+      <c r="B5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>244</v>
+      </c>
+      <c r="B7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>247</v>
+      </c>
+      <c r="B8" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>235</v>
+      </c>
+      <c r="B9" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>296</v>
+      </c>
+      <c r="B10" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>258</v>
+      </c>
+      <c r="B11" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>229</v>
+      </c>
+      <c r="B12" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>253</v>
+      </c>
+      <c r="B13" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>284</v>
+      </c>
+      <c r="B14" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>255</v>
+      </c>
+      <c r="B15" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>322</v>
+      </c>
+      <c r="B16" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>218</v>
+      </c>
+      <c r="B17" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>327</v>
+      </c>
+      <c r="B18" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>309</v>
+      </c>
+      <c r="B19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B20" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>300</v>
+      </c>
+      <c r="B21" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>301</v>
+      </c>
+      <c r="B22" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>341</v>
+      </c>
+      <c r="B23" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>234</v>
+      </c>
+      <c r="B24" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>261</v>
+      </c>
+      <c r="B25" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>288</v>
+      </c>
+      <c r="B26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>323</v>
+      </c>
+      <c r="B27" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>232</v>
+      </c>
+      <c r="B28" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>302</v>
+      </c>
+      <c r="B29" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>319</v>
+      </c>
+      <c r="B30" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>338</v>
+      </c>
+      <c r="B31" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>249</v>
+      </c>
+      <c r="B32" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>265</v>
+      </c>
+      <c r="B33" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>241</v>
+      </c>
+      <c r="B34" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>328</v>
+      </c>
+      <c r="B35" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>227</v>
+      </c>
+      <c r="B36" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>336</v>
+      </c>
+      <c r="B37" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>298</v>
+      </c>
+      <c r="B38" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>252</v>
+      </c>
+      <c r="B39" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>307</v>
+      </c>
+      <c r="B40" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>239</v>
+      </c>
+      <c r="B41" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>315</v>
+      </c>
+      <c r="B42" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>220</v>
+      </c>
+      <c r="B43" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>273</v>
+      </c>
+      <c r="B44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>223</v>
+      </c>
+      <c r="B45" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>221</v>
+      </c>
+      <c r="B46" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>276</v>
+      </c>
+      <c r="B47" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>297</v>
+      </c>
+      <c r="B48" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>243</v>
+      </c>
+      <c r="B49" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>303</v>
+      </c>
+      <c r="B50" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>238</v>
+      </c>
+      <c r="B51" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>254</v>
+      </c>
+      <c r="B52" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>317</v>
+      </c>
+      <c r="B53" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>248</v>
+      </c>
+      <c r="B54" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>151</v>
+      </c>
+      <c r="B55" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>246</v>
+      </c>
+      <c r="B56" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>331</v>
+      </c>
+      <c r="B57" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>271</v>
+      </c>
+      <c r="B58" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>266</v>
+      </c>
+      <c r="B59" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>311</v>
+      </c>
+      <c r="B60" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>305</v>
+      </c>
+      <c r="B61" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>299</v>
+      </c>
+      <c r="B62" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>334</v>
+      </c>
+      <c r="B63" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>260</v>
+      </c>
+      <c r="B64" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>230</v>
+      </c>
+      <c r="B65" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>313</v>
+      </c>
+      <c r="B66" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>282</v>
+      </c>
+      <c r="B67" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>280</v>
+      </c>
+      <c r="B68" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>335</v>
+      </c>
+      <c r="B69" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>287</v>
+      </c>
+      <c r="B70" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>256</v>
+      </c>
+      <c r="B71" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>326</v>
+      </c>
+      <c r="B72" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>274</v>
+      </c>
+      <c r="B73" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>236</v>
+      </c>
+      <c r="B74" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>225</v>
+      </c>
+      <c r="B75" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>228</v>
+      </c>
+      <c r="B76" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>279</v>
+      </c>
+      <c r="B77" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>251</v>
+      </c>
+      <c r="B78" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>263</v>
+      </c>
+      <c r="B79" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>303</v>
+      </c>
+      <c r="B80" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>320</v>
+      </c>
+      <c r="B81" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>329</v>
+      </c>
+      <c r="B82" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>324</v>
+      </c>
+      <c r="B83" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>321</v>
+      </c>
+      <c r="B84" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>310</v>
+      </c>
+      <c r="B85" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>342</v>
+      </c>
+      <c r="B86" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>278</v>
+      </c>
+      <c r="B87" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>304</v>
+      </c>
+      <c r="B88" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>308</v>
+      </c>
+      <c r="B89" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>337</v>
+      </c>
+      <c r="B90" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>295</v>
+      </c>
+      <c r="B91" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>217</v>
+      </c>
+      <c r="B92" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>332</v>
+      </c>
+      <c r="B93" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>330</v>
+      </c>
+      <c r="B94" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>316</v>
+      </c>
+      <c r="B95" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>312</v>
+      </c>
+      <c r="B96" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>333</v>
+      </c>
+      <c r="B97" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>325</v>
+      </c>
+      <c r="B98" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>306</v>
+      </c>
+      <c r="B99" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>268</v>
+      </c>
+      <c r="B100" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>314</v>
+      </c>
+      <c r="B101" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>318</v>
+      </c>
+      <c r="B102" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>286</v>
+      </c>
+      <c r="B103" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>303</v>
+      </c>
+      <c r="B104" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>339</v>
+      </c>
+      <c r="B105" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>215</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B113">
+    <sortCondition ref="B2:B113"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A146CD5D-7716-49CE-AE33-B196883A43EA}">
+  <dimension ref="A1:A105"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>342</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>